--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/40.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/40.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3019921611853184</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.937959566353419</v>
+        <v>-1.944915965482554</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1290575268357075</v>
+        <v>0.1312651195491615</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.146244761041764</v>
+        <v>-0.1476799883151273</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3124965893656117</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.079077594484018</v>
+        <v>-2.087435639780425</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06759096225654218</v>
+        <v>0.06817936163717837</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.119124367753135</v>
+        <v>-0.1201610018976801</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3442852865250666</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.290823258940188</v>
+        <v>-2.299971920277822</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05458339381463657</v>
+        <v>0.05526085612881821</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.142520178361856</v>
+        <v>-0.1434925703904011</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3859890596701914</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.460588160638461</v>
+        <v>-2.469852165775277</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005513941143783573</v>
+        <v>0.000780621664651023</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1678885139413946</v>
+        <v>-0.1688682062103943</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4225259773741895</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.529028644923851</v>
+        <v>-2.539920603682031</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07188889191605674</v>
+        <v>-0.07396946044560163</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1716014162365754</v>
+        <v>-0.1718875856623935</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4429761984988535</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.327867599102724</v>
+        <v>-2.338897532405493</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1219451806647706</v>
+        <v>-0.1262625428695876</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.147205472685582</v>
+        <v>-0.1474741215343092</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4448249221801034</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.019478431413125</v>
+        <v>-2.031742105352712</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1705034600722121</v>
+        <v>-0.1768488290753013</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1166160051329538</v>
+        <v>-0.1161283490705903</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.4288105820697008</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.665956257137356</v>
+        <v>-1.678465949180262</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.09896840385814037</v>
+        <v>-0.106635116383502</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07418700761114704</v>
+        <v>-0.07331973904514726</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3921790775453126</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.23516176767429</v>
+        <v>-1.247988290152923</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0132304517358295</v>
+        <v>0.008537857171648939</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01142684042343661</v>
+        <v>-0.01062089387725501</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3313396665978465</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9231932920898281</v>
+        <v>-0.9358694296150974</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07742146605263045</v>
+        <v>0.07408817626108588</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01685967936970788</v>
+        <v>-0.01616177638225352</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2445725689257078</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5586981263868351</v>
+        <v>-0.572228392045286</v>
       </c>
       <c r="F12" t="n">
-        <v>0.148414844424975</v>
+        <v>0.146399978059521</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02095219416852496</v>
+        <v>-0.02210855225652465</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1344363243671868</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.114710642374318</v>
+        <v>-0.1294206268902231</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01310634764810226</v>
+        <v>0.01062718598973929</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04764816538282025</v>
+        <v>0.04655312931463873</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.009803888227112628</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3382561373972877</v>
+        <v>0.3230103152320191</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.160221801416033</v>
+        <v>-0.1626133601889415</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1165989364759836</v>
+        <v>0.1140803535191661</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1225597669518254</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8817707196227781</v>
+        <v>0.8676184734776001</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1814567408502091</v>
+        <v>-0.1807734383436639</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1984477724042343</v>
+        <v>0.1959306494955077</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2617508267117019</v>
       </c>
       <c r="E16" t="n">
-        <v>1.578612252115046</v>
+        <v>1.567691092395048</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5176036128201189</v>
+        <v>-0.5151273712579377</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2633994717763987</v>
+        <v>0.261139317331672</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4132621948756489</v>
       </c>
       <c r="E17" t="n">
-        <v>2.280696817301766</v>
+        <v>2.27344037828995</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6834125142160743</v>
+        <v>-0.6813056648208931</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3738302091322781</v>
+        <v>0.3713875486761879</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5776984918918699</v>
       </c>
       <c r="E18" t="n">
-        <v>3.04164176122538</v>
+        <v>3.037169633922927</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9603953174461818</v>
+        <v>-0.9599587630670001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4855676895295208</v>
+        <v>0.4824315062302489</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7478638897156302</v>
       </c>
       <c r="E19" t="n">
-        <v>3.669487261133666</v>
+        <v>3.667154104284394</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.200016950078026</v>
+        <v>-1.199889925894118</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6044594055722162</v>
+        <v>0.6022839339167623</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9114653084276008</v>
       </c>
       <c r="E20" t="n">
-        <v>4.327290027771217</v>
+        <v>4.329424618080125</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.459724464296502</v>
+        <v>-1.460384406033593</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7169940722270951</v>
+        <v>0.7134987170974596</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.057973472428511</v>
       </c>
       <c r="E21" t="n">
-        <v>4.849346283204622</v>
+        <v>4.85345631858053</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.731322610167338</v>
+        <v>-1.733162270761883</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8643041643112374</v>
+        <v>0.8613972085622381</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.181019855926703</v>
       </c>
       <c r="E22" t="n">
-        <v>5.363499298321939</v>
+        <v>5.372480054129118</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.949900569664916</v>
+        <v>-1.95305573358937</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9506032268205777</v>
+        <v>0.9479736802088512</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.277266262415582</v>
       </c>
       <c r="E23" t="n">
-        <v>5.709682540868754</v>
+        <v>5.719529105193843</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.197982450959531</v>
+        <v>-2.203132770600212</v>
       </c>
       <c r="G23" t="n">
-        <v>1.060771155520094</v>
+        <v>1.057404284622458</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.346258304369039</v>
       </c>
       <c r="E24" t="n">
-        <v>6.129449287101187</v>
+        <v>6.143144538193911</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.426356603123061</v>
+        <v>-2.433255330352604</v>
       </c>
       <c r="G24" t="n">
-        <v>1.180617743014243</v>
+        <v>1.177967755729244</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.387473772013067</v>
       </c>
       <c r="E25" t="n">
-        <v>6.415713616045201</v>
+        <v>6.434145263144833</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.550911845710391</v>
+        <v>-2.55744994106148</v>
       </c>
       <c r="G25" t="n">
-        <v>1.254312210354769</v>
+        <v>1.252069576487133</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.402206020200014</v>
       </c>
       <c r="E26" t="n">
-        <v>6.577232896150067</v>
+        <v>6.599206619918243</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.600326443323151</v>
+        <v>-2.606184886287922</v>
       </c>
       <c r="G26" t="n">
-        <v>1.317850583174934</v>
+        <v>1.316270811140571</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.392483639678652</v>
       </c>
       <c r="E27" t="n">
-        <v>6.680640802188676</v>
+        <v>6.704131515923305</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.682504520095901</v>
+        <v>-2.690776422554944</v>
       </c>
       <c r="G27" t="n">
-        <v>1.329275459486294</v>
+        <v>1.326464866911295</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.363678001830842</v>
       </c>
       <c r="E28" t="n">
-        <v>6.8623058258519</v>
+        <v>6.888275701244893</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.71094187676253</v>
+        <v>-2.717717959952437</v>
       </c>
       <c r="G28" t="n">
-        <v>1.368777060585829</v>
+        <v>1.366424923111375</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.32148075137614</v>
       </c>
       <c r="E29" t="n">
-        <v>6.825597296750273</v>
+        <v>6.852354138064266</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.731365029458161</v>
+        <v>-2.738869676645431</v>
       </c>
       <c r="G29" t="n">
-        <v>1.353770686307469</v>
+        <v>1.352443502592834</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.271657454609682</v>
       </c>
       <c r="E30" t="n">
-        <v>6.76113033334429</v>
+        <v>6.787809792109465</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.635916575587141</v>
+        <v>-2.640901179769503</v>
       </c>
       <c r="G30" t="n">
-        <v>1.336774266481201</v>
+        <v>1.335765373250383</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.218413210699361</v>
       </c>
       <c r="E31" t="n">
-        <v>6.783606313655739</v>
+        <v>6.812404302200822</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.537618837866713</v>
+        <v>-2.541233916939803</v>
       </c>
       <c r="G31" t="n">
-        <v>1.298296159093393</v>
+        <v>1.297319386920576</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.163416929999297</v>
       </c>
       <c r="E32" t="n">
-        <v>6.741883979409931</v>
+        <v>6.771917168639924</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.40558814905393</v>
+        <v>-2.407114629332975</v>
       </c>
       <c r="G32" t="n">
-        <v>1.25111616508377</v>
+        <v>1.250865036812133</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.108702957013764</v>
       </c>
       <c r="E33" t="n">
-        <v>6.573728780731886</v>
+        <v>6.605646892047242</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.371144884565348</v>
+        <v>-2.372776488306939</v>
       </c>
       <c r="G33" t="n">
-        <v>1.193042752267876</v>
+        <v>1.192944929045785</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.053854274434665</v>
       </c>
       <c r="E34" t="n">
-        <v>6.279644434212965</v>
+        <v>6.308216115303957</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.335735068240585</v>
+        <v>-2.335363486001449</v>
       </c>
       <c r="G34" t="n">
-        <v>1.143339795157162</v>
+        <v>1.142952882413072</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9997305550756681</v>
       </c>
       <c r="E35" t="n">
-        <v>6.085634703941108</v>
+        <v>6.112594491939737</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.296399912623414</v>
+        <v>-2.297533639966005</v>
       </c>
       <c r="G35" t="n">
-        <v>1.084381593198178</v>
+        <v>1.083128871936179</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9450942957585656</v>
       </c>
       <c r="E36" t="n">
-        <v>5.888611434409616</v>
+        <v>5.915673425774608</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.234740621696249</v>
+        <v>-2.233476950073567</v>
       </c>
       <c r="G36" t="n">
-        <v>1.061410656583912</v>
+        <v>1.061361014948821</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8910350230480815</v>
       </c>
       <c r="E37" t="n">
-        <v>5.584160746445242</v>
+        <v>5.609743709094145</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.189003155200443</v>
+        <v>-2.188853500271124</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9568215716397579</v>
+        <v>0.9560900875462127</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8371163236035879</v>
       </c>
       <c r="E38" t="n">
-        <v>5.278784387991234</v>
+        <v>5.303936636453318</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.142943018076546</v>
+        <v>-2.142665608939273</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8838498281042321</v>
+        <v>0.8827241310261414</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7840275357573674</v>
       </c>
       <c r="E39" t="n">
-        <v>4.9637760922815</v>
+        <v>4.989626243731038</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.085095182690698</v>
+        <v>-2.084162211960607</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8035501032004355</v>
+        <v>0.8020243529454358</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7320335253846147</v>
       </c>
       <c r="E40" t="n">
-        <v>4.674404781000033</v>
+        <v>4.699206617920298</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.105089811271647</v>
+        <v>-2.104537183069238</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7627227784343555</v>
+        <v>0.7616204421257194</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6804140297477965</v>
       </c>
       <c r="E41" t="n">
-        <v>4.353841002304391</v>
+        <v>4.378108461623385</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.998980816264857</v>
+        <v>-1.998765459171448</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6833268232988314</v>
+        <v>0.6821471044413772</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6287485452085295</v>
       </c>
       <c r="E42" t="n">
-        <v>3.978757567846128</v>
+        <v>3.999805621124668</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.908114723327154</v>
+        <v>-1.908457834628518</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6036432386893983</v>
+        <v>0.6031030208957621</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5754856258746087</v>
       </c>
       <c r="E43" t="n">
-        <v>3.679184900553481</v>
+        <v>3.698621060739658</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.855663225685305</v>
+        <v>-1.855797550109669</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5639138700876817</v>
+        <v>0.5628232141637728</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5207025020949572</v>
       </c>
       <c r="E44" t="n">
-        <v>3.379661874895926</v>
+        <v>3.396903582801466</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.761240455598148</v>
+        <v>-1.760622855255694</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5147438305301494</v>
+        <v>0.5139072229740587</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4642198054225669</v>
       </c>
       <c r="E45" t="n">
-        <v>3.097071026948638</v>
+        <v>3.114355076248815</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.678746278413716</v>
+        <v>-1.678131598167444</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4207955760725383</v>
+        <v>0.4189398549489933</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4079149430388299</v>
       </c>
       <c r="E46" t="n">
-        <v>2.803424694856989</v>
+        <v>2.819575746838622</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.600197151170919</v>
+        <v>-1.60010224804501</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3832796403766392</v>
+        <v>0.3810647474227307</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3535622843104105</v>
       </c>
       <c r="E47" t="n">
-        <v>2.47428313362726</v>
+        <v>2.489349369877346</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.479341670445951</v>
+        <v>-1.478332777215134</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3195543814008381</v>
+        <v>0.3174081107072024</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3028755853565836</v>
       </c>
       <c r="E48" t="n">
-        <v>2.18325466776261</v>
+        <v>2.196384880244152</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.375970265609616</v>
+        <v>-1.374041542081525</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2905198650650277</v>
+        <v>0.289508051738028</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2576410807185555</v>
       </c>
       <c r="E49" t="n">
-        <v>1.90393724763514</v>
+        <v>1.915347523465591</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.290039135219184</v>
+        <v>-1.287396448174639</v>
       </c>
       <c r="G49" t="n">
-        <v>0.237312792536133</v>
+        <v>0.2356673183376789</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2182198013982219</v>
       </c>
       <c r="E50" t="n">
-        <v>1.769474118702903</v>
+        <v>1.781377890788082</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.168986548001944</v>
+        <v>-1.165806563259945</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1986215181270524</v>
+        <v>0.1975834239344164</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1855611331255843</v>
       </c>
       <c r="E51" t="n">
-        <v>1.49659551065634</v>
+        <v>1.505339738672792</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.093113688909783</v>
+        <v>-1.089736597675511</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1672275640763336</v>
+        <v>0.1667822494086064</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1591070126540236</v>
       </c>
       <c r="E52" t="n">
-        <v>1.339241747754837</v>
+        <v>1.346270419264471</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.011079426873986</v>
+        <v>-1.007252640827715</v>
       </c>
       <c r="G52" t="n">
-        <v>0.144433293281067</v>
+        <v>0.1440726614026125</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1388124328127925</v>
       </c>
       <c r="E53" t="n">
-        <v>1.097742493278084</v>
+        <v>1.103652767950082</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9381836058391878</v>
+        <v>-0.9335990548337344</v>
       </c>
       <c r="G53" t="n">
-        <v>0.100903419498715</v>
+        <v>0.1005938893034424</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1235134349177148</v>
       </c>
       <c r="E54" t="n">
-        <v>0.953878114688486</v>
+        <v>0.9585896898778484</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9460240640873675</v>
+        <v>-0.9409737577409143</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0498542980481833</v>
+        <v>0.04978275569172878</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1120874149007601</v>
       </c>
       <c r="E55" t="n">
-        <v>0.792666904730802</v>
+        <v>0.7972149545339826</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8980644043971985</v>
+        <v>-0.8946157708064721</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02240247384291794</v>
+        <v>0.02175859263482721</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1035459532322864</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6471541318465683</v>
+        <v>0.650646566880022</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8497718537423024</v>
+        <v>-0.8454077699985763</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01566289185528339</v>
+        <v>0.01534022122719257</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.09670101413986248</v>
       </c>
       <c r="E57" t="n">
-        <v>0.504211043602334</v>
+        <v>0.5070230962254242</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8174901904523111</v>
+        <v>-0.8130735449773122</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01129251599907301</v>
+        <v>-0.01223862716198184</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.09110726491698967</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3947848193329997</v>
+        <v>0.3968318067564537</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8111214606797673</v>
+        <v>-0.8076421660791319</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02766111514625043</v>
+        <v>-0.02795166471634126</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.08598659164443272</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2485653831727663</v>
+        <v>0.2510693656486747</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7462559041449666</v>
+        <v>-0.7428466918526948</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09207405677286949</v>
+        <v>-0.09304498875332379</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.08089559154788017</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1884654236066915</v>
+        <v>0.1908146409849636</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7297690411024256</v>
+        <v>-0.7261831629911538</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.07937455847814563</v>
+        <v>-0.08023598685178177</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.07544283150240486</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03087951305873385</v>
+        <v>0.03294110096309693</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7021478513186148</v>
+        <v>-0.6985254720050703</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1363865163319485</v>
+        <v>-0.136682906094403</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.06943619716438856</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05709714470706071</v>
+        <v>-0.05425297102597056</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7204816751961554</v>
+        <v>-0.7169717195856108</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1687061408723035</v>
+        <v>-0.1686316784196671</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.06235983298796025</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1502847141093084</v>
+        <v>-0.1476975088922182</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7538510743138737</v>
+        <v>-0.7506404285619653</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1835081084179359</v>
+        <v>-0.1837519364491176</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.0537576077453581</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2639231771209143</v>
+        <v>-0.2605256452133697</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7571245021336909</v>
+        <v>-0.75355614459951</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2174965679261995</v>
+        <v>-0.2172089384522904</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.04369650582995122</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4172924687823276</v>
+        <v>-0.4133620193216014</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7388447000355141</v>
+        <v>-0.7347594854771514</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.237813137111194</v>
+        <v>-0.2376335511960122</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.03234525141357016</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.44231331291623</v>
+        <v>-0.4373272486857768</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7700313272573238</v>
+        <v>-0.7652817908175978</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2539364481790988</v>
+        <v>-0.2530589592764627</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.02066026362738383</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5288854044185703</v>
+        <v>-0.5241139672574807</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8100994270161312</v>
+        <v>-0.8056623408678597</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2687121348590948</v>
+        <v>-0.2678638469182769</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.009606169689107387</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5627585201276522</v>
+        <v>-0.5571417151219265</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7607833826495081</v>
+        <v>-0.754245287298419</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3187348425017177</v>
+        <v>-0.3193407624594448</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.896909234259183e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6427282741629035</v>
+        <v>-0.6374560405066322</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8062142390462232</v>
+        <v>-0.8001944607674066</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.318090961293627</v>
+        <v>-0.3175069420572635</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.008048324737563501</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7516259610233288</v>
+        <v>-0.7471202526147845</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.8033613050765875</v>
+        <v>-0.7965122194821349</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3572260903223438</v>
+        <v>-0.3575137197962528</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.01468539226845517</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7802458237013211</v>
+        <v>-0.7751955173548679</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9313739415431895</v>
+        <v>-0.925627192257373</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4014728477173319</v>
+        <v>-0.402334276090968</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.0205713593660105</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8237815376760367</v>
+        <v>-0.8178172412246746</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9975009796285355</v>
+        <v>-0.9921572036158096</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.419189071252418</v>
+        <v>-0.4197395093826906</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.02633143517374736</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8738276060881142</v>
+        <v>-0.869608067105388</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.03104120437289</v>
+        <v>-1.0270246120748</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4525497100815909</v>
+        <v>-0.452946843162318</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.03253794086276886</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8160491229865842</v>
+        <v>-0.812438424057767</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.056644607695065</v>
+        <v>-1.051927192313339</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4668465009877689</v>
+        <v>-0.4674173797913141</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.03956006894987495</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7998382090332249</v>
+        <v>-0.7967297666476802</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.120638515519593</v>
+        <v>-1.11782062270414</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4556756730442264</v>
+        <v>-0.4563633556950444</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.04700432088835922</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7160431289997928</v>
+        <v>-0.7132763378675209</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.161568043652037</v>
+        <v>-1.160525569315128</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.458064311720953</v>
+        <v>-0.4589856020663164</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.05442976563093062</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5657501586659242</v>
+        <v>-0.5619175324272888</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.14637332316995</v>
+        <v>-1.144484020940314</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4385098876394128</v>
+        <v>-0.4398107904884125</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.06129060784852143</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4280282023947793</v>
+        <v>-0.4226187242179625</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.170015881906035</v>
+        <v>-1.169131092762944</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4506589478038641</v>
+        <v>-0.4524737875808637</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.06676660920761152</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3262803710355339</v>
+        <v>-0.319753956069172</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.25212898653874</v>
+        <v>-1.251604829274104</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.39473764587397</v>
+        <v>-0.395969926462697</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.07014696925767097</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1370756590308574</v>
+        <v>-0.130525883295041</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.308467862222634</v>
+        <v>-1.308869375447634</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3720163774832489</v>
+        <v>-0.373517306920703</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.07016914613273911</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02045622973773665</v>
+        <v>0.0282017848600073</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.299400963578091</v>
+        <v>-1.301459631386272</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3228025364829893</v>
+        <v>-0.3234595581238983</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.06600801591385709</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2320274184470435</v>
+        <v>0.2401642664576777</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.286905872016094</v>
+        <v>-1.289608421032366</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.286891193638999</v>
+        <v>-0.287451852105908</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.05665158175302006</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4136384203309038</v>
+        <v>0.4226074957533559</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.228312682079837</v>
+        <v>-1.230466253013927</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2691428490459128</v>
+        <v>-0.2696830668395491</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.04172964101438987</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6213901232343935</v>
+        <v>0.6286786833042097</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.151384208217949</v>
+        <v>-1.152771253904312</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2445424987621922</v>
+        <v>-0.2452185010282829</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.02176060288740404</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7356797676945446</v>
+        <v>0.7425449138179973</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.063682039493245</v>
+        <v>-1.064407683394426</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2092472962125653</v>
+        <v>-0.2095772670811107</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.001859609797920506</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9607418007638479</v>
+        <v>0.9677996732353005</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9979813354504444</v>
+        <v>-0.9989011657477169</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1797937460746641</v>
+        <v>-0.180659554592573</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.02731547927426145</v>
       </c>
       <c r="E87" t="n">
-        <v>1.103798772759173</v>
+        <v>1.110761742104717</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9419490698656413</v>
+        <v>-0.9435098612748227</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1496408329012177</v>
+        <v>-0.1505431426213993</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.05228487999719896</v>
       </c>
       <c r="E88" t="n">
-        <v>1.206165664508964</v>
+        <v>1.212689159379144</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8859927267815654</v>
+        <v>-0.888925963396201</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1133133763513183</v>
+        <v>-0.1141850250615908</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.07391149576379082</v>
       </c>
       <c r="E89" t="n">
-        <v>1.329060832416931</v>
+        <v>1.334611935258566</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7890937151322278</v>
+        <v>-0.7929015205533176</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1118693887894096</v>
+        <v>-0.1126344539890458</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08877972122192812</v>
       </c>
       <c r="E90" t="n">
-        <v>1.36704252345383</v>
+        <v>1.371203660512919</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.688903755085982</v>
+        <v>-0.6927261609879809</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.077993352984146</v>
+        <v>-0.07834814467023682</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09382473892171297</v>
       </c>
       <c r="E91" t="n">
-        <v>1.412333215233817</v>
+        <v>1.415651904544453</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5831072103706467</v>
+        <v>-0.5877282625783727</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01704364542916237</v>
+        <v>-0.01652094821261706</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.0871461347371936</v>
       </c>
       <c r="E92" t="n">
-        <v>1.435714425361629</v>
+        <v>1.438652042120538</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4552639394825901</v>
+        <v>-0.4604106090030433</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02028203209479787</v>
+        <v>-0.02066018455034322</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06931792181882931</v>
       </c>
       <c r="E93" t="n">
-        <v>1.40759681922691</v>
+        <v>1.409712428910636</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3473955865262555</v>
+        <v>-0.3520954813308906</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01343440654843607</v>
+        <v>-0.01398484467870865</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04296721359452346</v>
       </c>
       <c r="E94" t="n">
-        <v>1.407185085665273</v>
+        <v>1.410200084973</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2069842216716568</v>
+        <v>-0.2124652422049281</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01697794326507148</v>
+        <v>-0.01662607167516248</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.01097132572130279</v>
       </c>
       <c r="E95" t="n">
-        <v>1.333103705580657</v>
+        <v>1.33518135401402</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.0918404490783241</v>
+        <v>-0.09608480887859569</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01887308568707097</v>
+        <v>-0.01890812684125278</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02342736056879663</v>
       </c>
       <c r="E96" t="n">
-        <v>1.254291769681496</v>
+        <v>1.257300928796859</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0342785050143693</v>
+        <v>0.03095689560755201</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03355240919306703</v>
+        <v>-0.03382105804179423</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05699402024892923</v>
       </c>
       <c r="E97" t="n">
-        <v>1.172054560961064</v>
+        <v>1.174614025264427</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1331047801437064</v>
+        <v>0.132022884508343</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05210086013997114</v>
+        <v>-0.0523286276421529</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08648369087306293</v>
       </c>
       <c r="E98" t="n">
-        <v>1.075568742921453</v>
+        <v>1.07619072340818</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1940150664002355</v>
+        <v>0.1930601949487812</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05739353446951517</v>
+        <v>-0.05731177177642429</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1089923089632729</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9386629535331265</v>
+        <v>0.9387709970918537</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1948560541005989</v>
+        <v>0.1945012624145081</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05248923293215285</v>
+        <v>-0.05133579494033498</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1259895862495613</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8444285296496972</v>
+        <v>0.8440386968094246</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2110450673325946</v>
+        <v>0.2111516508432309</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04574235070406376</v>
+        <v>-0.04518607238142754</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1388059262179736</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6926988719943743</v>
+        <v>0.6908606714479203</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1977615498015072</v>
+        <v>0.1973804772497801</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04921288501615374</v>
+        <v>-0.0491559431406083</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1516914574146466</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6328748615174813</v>
+        <v>0.6316732419386635</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2068737099368684</v>
+        <v>0.206497017529414</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08098645157050884</v>
+        <v>-0.08126970090014513</v>
       </c>
     </row>
   </sheetData>
